--- a/published-data/fonds-solidarite/fds-2022-05-31/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-31/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -2993,13 +2993,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>14353</v>
+        <v>14355</v>
       </c>
       <c r="D63" t="n">
         <v>2812</v>
       </c>
       <c r="E63" t="n">
-        <v>36182271</v>
+        <v>36182831</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -3731,13 +3731,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>17432</v>
+        <v>17433</v>
       </c>
       <c r="D81" t="n">
         <v>3213</v>
       </c>
       <c r="E81" t="n">
-        <v>133752386</v>
+        <v>133950839</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -4141,13 +4141,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>151124</v>
+        <v>151134</v>
       </c>
       <c r="D91" t="n">
         <v>24834</v>
       </c>
       <c r="E91" t="n">
-        <v>482316560</v>
+        <v>482406764</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4182,13 +4182,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>409094</v>
+        <v>409105</v>
       </c>
       <c r="D92" t="n">
         <v>70906</v>
       </c>
       <c r="E92" t="n">
-        <v>1594961459</v>
+        <v>1595107955</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4223,13 +4223,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>209564</v>
+        <v>209568</v>
       </c>
       <c r="D93" t="n">
         <v>34261</v>
       </c>
       <c r="E93" t="n">
-        <v>1308726225</v>
+        <v>1308770817</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4264,13 +4264,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>94192</v>
+        <v>94193</v>
       </c>
       <c r="D94" t="n">
         <v>13795</v>
       </c>
       <c r="E94" t="n">
-        <v>917383638</v>
+        <v>917466940</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -4305,13 +4305,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>50758</v>
+        <v>50759</v>
       </c>
       <c r="D95" t="n">
         <v>6982</v>
       </c>
       <c r="E95" t="n">
-        <v>932094540</v>
+        <v>932280796</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4346,13 +4346,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>17266</v>
+        <v>17268</v>
       </c>
       <c r="D96" t="n">
         <v>2565</v>
       </c>
       <c r="E96" t="n">
-        <v>791958388</v>
+        <v>792060406</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4674,13 +4674,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>135238</v>
+        <v>135239</v>
       </c>
       <c r="D104" t="n">
         <v>23286</v>
       </c>
       <c r="E104" t="n">
-        <v>272193455</v>
+        <v>272198155</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -4961,13 +4961,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D111" t="n">
         <v>17</v>
       </c>
       <c r="E111" t="n">
-        <v>7718509</v>
+        <v>7791001</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -5125,13 +5125,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>11693</v>
+        <v>11695</v>
       </c>
       <c r="D115" t="n">
         <v>2248</v>
       </c>
       <c r="E115" t="n">
-        <v>32955791</v>
+        <v>32962731</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
